--- a/research.xlsx
+++ b/research.xlsx
@@ -1234,10 +1234,10 @@
   <dimension ref="A1:AJ72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64:S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,26 +1448,20 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>1001</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1016</v>
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="K3" s="9">
         <v>1</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="1">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="N3" s="11">
         <v>1</v>
@@ -1476,13 +1470,13 @@
         <v>1000</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1">
         <v>1001</v>
@@ -1520,26 +1514,20 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1021</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="K4" s="9">
         <v>1</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="1">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="N4" s="11">
         <v>1</v>
@@ -1548,13 +1536,13 @@
         <v>1000</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="U4" s="1">
         <v>1002</v>
@@ -1592,26 +1580,20 @@
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>1003</v>
+        <v>1030</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1011</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="K5" s="9">
         <v>1</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="1">
-        <v>1035</v>
+        <v>1005</v>
       </c>
       <c r="N5" s="11">
         <v>1</v>
@@ -1620,13 +1602,13 @@
         <v>1000</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="U5" s="1">
         <v>1003</v>
@@ -1664,26 +1646,20 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1019</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="K6" s="9">
         <v>1</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="1">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -1692,13 +1668,13 @@
         <v>1000</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U6" s="1">
         <v>1004</v>
@@ -1738,10 +1714,10 @@
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>1005</v>
+        <v>1032</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1751,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="N7" s="11">
         <v>1</v>
@@ -1760,13 +1736,13 @@
         <v>1000</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1">
         <v>1005</v>
@@ -1806,10 +1782,10 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1819,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>1015</v>
+        <v>1028</v>
       </c>
       <c r="N8" s="11">
         <v>1</v>
@@ -1828,13 +1804,13 @@
         <v>1000</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U8" s="1">
         <v>1006</v>
@@ -1874,38 +1850,35 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>1007</v>
+        <v>1031</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1025</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1020</v>
+      </c>
       <c r="N9" s="11">
         <v>1</v>
       </c>
       <c r="O9" s="14">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="U9" s="1">
         <v>1007</v>
@@ -1945,26 +1918,20 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1018</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
       <c r="M10" s="1">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="N10" s="11">
         <v>1</v>
@@ -1973,13 +1940,13 @@
         <v>1000</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U10" s="1">
         <v>1008</v>
@@ -2017,10 +1984,10 @@
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2030,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="N11" s="11">
         <v>1</v>
@@ -2039,13 +2006,13 @@
         <v>1000</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U11" s="1">
         <v>1009</v>
@@ -2083,10 +2050,10 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2094,27 +2061,30 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
+      <c r="J12" s="1">
+        <v>1016</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
       </c>
       <c r="L12" s="9"/>
+      <c r="M12" s="1">
+        <v>1033</v>
+      </c>
       <c r="N12" s="11">
         <v>1</v>
       </c>
       <c r="O12" s="14">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X12" s="4" t="s">
         <v>266</v>
@@ -2146,26 +2116,26 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="1">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="N13" s="11">
         <v>1</v>
@@ -2174,13 +2144,13 @@
         <v>1000</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="11">
         <v>1</v>
@@ -2206,10 +2176,10 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2217,15 +2187,15 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
+      <c r="J14" s="1">
+        <v>1011</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="1">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N14" s="11">
         <v>1</v>
@@ -2234,13 +2204,13 @@
         <v>1000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="11">
         <v>1</v>
@@ -2266,10 +2236,10 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2277,15 +2247,15 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
+      <c r="J15" s="1">
+        <v>1019</v>
       </c>
       <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="1">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N15" s="11">
         <v>1</v>
@@ -2294,13 +2264,13 @@
         <v>1000</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="11">
         <v>1</v>
@@ -2326,10 +2296,10 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2337,30 +2307,27 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
+      <c r="J16" s="1">
+        <v>1025</v>
       </c>
       <c r="K16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="1">
-        <v>1041</v>
-      </c>
       <c r="N16" s="11">
         <v>1</v>
       </c>
       <c r="O16" s="14">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>81</v>
@@ -2383,20 +2350,26 @@
     </row>
     <row r="17" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1018</v>
       </c>
       <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="1">
-        <v>1006</v>
+        <v>1037</v>
       </c>
       <c r="N17" s="11">
         <v>1</v>
@@ -2405,13 +2378,13 @@
         <v>1000</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>81</v>
@@ -2434,41 +2407,38 @@
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14">
         <v>1001</v>
       </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="1">
-        <v>1042</v>
-      </c>
-      <c r="N18" s="11">
-        <v>1</v>
-      </c>
-      <c r="O18" s="14">
-        <v>1000</v>
-      </c>
       <c r="Q18" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>81</v>
@@ -2491,26 +2461,26 @@
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1003</v>
       </c>
       <c r="K19" s="9">
         <v>1</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="1">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="N19" s="11">
         <v>1</v>
@@ -2519,13 +2489,13 @@
         <v>1000</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>81</v>
@@ -2548,26 +2518,26 @@
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1008</v>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
       </c>
       <c r="K20" s="9">
         <v>1</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="1">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="N20" s="11">
         <v>1</v>
@@ -2576,13 +2546,13 @@
         <v>1000</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>81</v>
@@ -2605,26 +2575,26 @@
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1004</v>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
       </c>
       <c r="K21" s="9">
         <v>1</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="1">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="N21" s="11">
         <v>1</v>
@@ -2633,13 +2603,13 @@
         <v>1000</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>81</v>
@@ -2662,12 +2632,18 @@
     </row>
     <row r="22" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="K22" s="9">
@@ -2675,7 +2651,7 @@
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="1">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="N22" s="11">
         <v>1</v>
@@ -2684,13 +2660,13 @@
         <v>1000</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AA22" s="13">
         <v>1</v>
@@ -2718,10 +2694,10 @@
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2730,14 +2706,14 @@
         <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K23" s="9">
         <v>1</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="1">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="N23" s="11">
         <v>1</v>
@@ -2746,13 +2722,13 @@
         <v>1000</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA23" s="13">
         <v>1</v>
@@ -2780,15 +2756,18 @@
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="K24" s="9">
@@ -2796,7 +2775,7 @@
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="1">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="N24" s="11">
         <v>1</v>
@@ -2805,13 +2784,13 @@
         <v>1000</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA24" s="13">
         <v>1</v>
@@ -2839,10 +2818,10 @@
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2850,24 +2829,30 @@
       <c r="H25" s="1">
         <v>1</v>
       </c>
+      <c r="J25" s="1">
+        <v>1008</v>
+      </c>
       <c r="K25" s="9">
         <v>1</v>
       </c>
       <c r="L25" s="9"/>
+      <c r="M25" s="1">
+        <v>1044</v>
+      </c>
       <c r="N25" s="11">
         <v>1</v>
       </c>
       <c r="O25" s="14">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AA25" s="13">
         <v>1</v>
@@ -2895,10 +2880,10 @@
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2906,24 +2891,30 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <v>1</v>
+      <c r="J26" s="1">
+        <v>1004</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="1">
+        <v>1045</v>
       </c>
       <c r="N26" s="11">
         <v>1</v>
       </c>
       <c r="O26" s="14">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AA26" s="13">
         <v>1</v>
@@ -2951,10 +2942,10 @@
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -2963,29 +2954,29 @@
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="K27" s="9">
         <v>1</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="1">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="N27" s="11">
         <v>1</v>
       </c>
       <c r="O27" s="14">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA27" s="13">
         <v>1</v>
@@ -3013,10 +3004,10 @@
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3024,27 +3015,27 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9">
-        <v>1</v>
-      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9"/>
       <c r="M28" s="1">
-        <v>1025</v>
+        <v>1047</v>
       </c>
       <c r="N28" s="11">
         <v>1</v>
       </c>
       <c r="O28" s="14">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA28" s="11">
         <v>1</v>
@@ -3070,23 +3061,35 @@
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="K29" s="9">
         <v>1</v>
       </c>
       <c r="L29" s="9"/>
+      <c r="N29" s="11">
+        <v>1</v>
+      </c>
       <c r="O29" s="14">
-        <v>1006</v>
+        <v>1007</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA29" s="13">
         <v>1</v>
@@ -3114,35 +3117,35 @@
     </row>
     <row r="30" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="1">
-        <v>1009</v>
+        <v>24</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9">
+        <v>1</v>
       </c>
       <c r="N30" s="11">
         <v>1</v>
       </c>
       <c r="O30" s="14">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>125</v>
@@ -3171,23 +3174,41 @@
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9">
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1007</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="N31" s="11">
         <v>1</v>
       </c>
       <c r="O31" s="14">
-        <v>1006</v>
+        <v>1007</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>125</v>
@@ -3216,35 +3237,38 @@
     </row>
     <row r="32" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="9">
-        <v>1</v>
-      </c>
-      <c r="L32" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
       <c r="M32" s="1">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="N32" s="11">
         <v>1</v>
       </c>
       <c r="O32" s="14">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>125</v>
@@ -3273,35 +3297,23 @@
     </row>
     <row r="33" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1020</v>
-      </c>
-      <c r="N33" s="11">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9"/>
       <c r="O33" s="14">
-        <v>1000</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>256</v>
+        <v>1006</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>125</v>
@@ -3330,35 +3342,23 @@
     </row>
     <row r="34" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="1">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9">
         <v>1</v>
       </c>
-      <c r="M34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N34" s="11">
-        <v>1</v>
-      </c>
       <c r="O34" s="14">
-        <v>1000</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>255</v>
+        <v>1006</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>125</v>
@@ -4443,12 +4443,15 @@
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="1">
+        <v>258</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
         <v>1</v>
       </c>
       <c r="K52" s="9">
@@ -4456,25 +4459,22 @@
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="1">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="N52" s="11">
         <v>1</v>
       </c>
       <c r="O52" s="14">
-        <v>1004</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>68</v>
+        <v>1003</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="AA52" s="13">
         <v>1</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="1">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N53" s="11">
         <v>1</v>
@@ -4528,16 +4528,16 @@
         <v>1004</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="AA53" s="13">
         <v>1</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="54" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="1">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="N54" s="11">
         <v>1</v>
@@ -4591,16 +4591,16 @@
         <v>1004</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="AA54" s="13">
         <v>1</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="55" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="1">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="N55" s="11">
         <v>1</v>
@@ -4654,16 +4654,16 @@
         <v>1004</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA55" s="13">
         <v>1</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="56" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="1">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="N56" s="11">
         <v>1</v>
@@ -4717,16 +4717,16 @@
         <v>1004</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA56" s="11">
         <v>1</v>
@@ -4753,20 +4753,20 @@
     </row>
     <row r="57" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9">
-        <v>1</v>
-      </c>
+      <c r="K57" s="9">
+        <v>1</v>
+      </c>
+      <c r="L57" s="9"/>
       <c r="M57" s="1">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="N57" s="11">
         <v>1</v>
@@ -4775,16 +4775,16 @@
         <v>1004</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="AA57" s="13"/>
       <c r="AB57" s="4" t="s">
@@ -4810,10 +4810,10 @@
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="1">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="N58" s="11">
         <v>1</v>
@@ -4835,22 +4835,22 @@
         <v>70</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="AG58" s="1"/>
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="1">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="N59" s="11">
         <v>1</v>
@@ -4872,22 +4872,22 @@
         <v>70</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="AG59" s="1"/>
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="M60" s="1">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="N60" s="11">
         <v>1</v>
@@ -4909,22 +4909,22 @@
         <v>70</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG60" s="1"/>
     </row>
     <row r="61" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="M61" s="1">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N61" s="11">
         <v>1</v>
@@ -4946,84 +4946,84 @@
         <v>70</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG61" s="1"/>
     </row>
     <row r="62" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
-      <c r="K62" s="9">
-        <v>1</v>
-      </c>
-      <c r="L62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1054</v>
+      </c>
       <c r="N62" s="11">
         <v>1</v>
       </c>
       <c r="O62" s="14">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AG62" s="1"/>
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1">
+        <v>124</v>
+      </c>
+      <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="K63" s="9">
         <v>1</v>
       </c>
       <c r="L63" s="9"/>
-      <c r="M63" s="1">
-        <v>1049</v>
-      </c>
       <c r="N63" s="11">
         <v>1</v>
       </c>
       <c r="O63" s="14">
-        <v>1003</v>
+        <v>1005</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="AG63" s="1"/>
     </row>
@@ -5083,18 +5083,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:S1"/>
-  <conditionalFormatting sqref="O2:O62">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD38">
     <cfRule type="colorScale" priority="126">
       <colorScale>
@@ -5119,7 +5107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD48 AD50 AD56 AD58:AD72">
+  <conditionalFormatting sqref="AD50 AD48 AD56 AD58:AD72">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -5143,7 +5131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH48 AH37 AH56 AH58:AH72">
+  <conditionalFormatting sqref="AH37 AH48 AH56 AH58:AH72">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -5179,7 +5167,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD48 AD50 AD56 AD2:AD38 AD58:AD62">
+  <conditionalFormatting sqref="AD50 AD48 AD56 AD2:AD38 AD58:AD62">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -5599,7 +5587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD54 AD52">
+  <conditionalFormatting sqref="AD52 AD54">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5863,32 +5851,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O63">
+  <conditionalFormatting sqref="O52">
     <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O63">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O64">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5985,6 +5949,42 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF57">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:O63 O2:O51">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O63">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O64">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
